--- a/doc/数据库设计.xlsx
+++ b/doc/数据库设计.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\li132\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ideaProject\dapeng_lgq_module3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A531F947-AAE8-4F6E-BBD0-5D86EFD351CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DD4C4E-2775-46C6-82D1-B8907E70EE37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2052" yWindow="732" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="入职培训项目" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="96">
   <si>
     <t>字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -381,6 +381,36 @@
   </si>
   <si>
     <t>男，女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bm_ task_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表4：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creator_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dept_name</t>
+  </si>
+  <si>
+    <t>创建者部门名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>executor</t>
+  </si>
+  <si>
+    <t>执行者名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -540,12 +570,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -553,6 +582,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -844,45 +879,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K36"/>
+  <dimension ref="A2:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:5" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A2" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="4" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+    <row r="5" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
@@ -896,8 +931,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+    <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
@@ -911,8 +946,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+    <row r="7" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
@@ -924,8 +959,8 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+    <row r="8" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
       <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
@@ -939,8 +974,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+    <row r="9" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
       <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
@@ -954,8 +989,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+    <row r="10" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
       <c r="B10" s="5" t="s">
         <v>37</v>
       </c>
@@ -969,8 +1004,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+    <row r="11" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
       <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
@@ -984,8 +1019,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+    <row r="12" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
       <c r="B12" s="5" t="s">
         <v>36</v>
       </c>
@@ -999,8 +1034,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+    <row r="13" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
       <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1014,8 +1049,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+    <row r="14" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
       <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
@@ -1029,8 +1064,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
+    <row r="15" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A15" s="13"/>
       <c r="B15" s="5" t="s">
         <v>27</v>
       </c>
@@ -1044,8 +1079,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+    <row r="16" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
       <c r="B16" s="5" t="s">
         <v>29</v>
       </c>
@@ -1059,8 +1094,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+    <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
       <c r="B17" s="5" t="s">
         <v>31</v>
       </c>
@@ -1072,304 +1107,550 @@
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+    <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="5" t="s">
+    <row r="22" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="C22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="5" t="s">
+    <row r="23" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
+      <c r="B23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
+      <c r="B24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="E27" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="H27" s="13"/>
-      <c r="J27" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="K27" s="13"/>
-    </row>
-    <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
       <c r="B28" s="5" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A29" s="13"/>
+      <c r="B29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A30" s="13"/>
+      <c r="B30" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A31" s="13"/>
+      <c r="B31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A32" s="13"/>
+      <c r="B32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A33" s="13"/>
+      <c r="B33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A34" s="13"/>
+      <c r="B34" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A35" s="13"/>
+      <c r="B35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A36" s="13"/>
+      <c r="B36" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="39" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A40" s="13"/>
+      <c r="B40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A41" s="13"/>
+      <c r="B41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A42" s="13"/>
+      <c r="B42" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A43" s="13"/>
+      <c r="B43" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A46" s="13"/>
+      <c r="B46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A47" s="13"/>
+      <c r="B47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H47" s="16"/>
+      <c r="J47" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="K47" s="16"/>
+    </row>
+    <row r="48" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A48" s="13"/>
+      <c r="B48" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G48" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="J28" s="14" t="s">
+      <c r="H48" s="18"/>
+      <c r="J48" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="K28" s="15"/>
-    </row>
-    <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="5" t="s">
+      <c r="K48" s="18"/>
+    </row>
+    <row r="49" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A49" s="13"/>
+      <c r="B49" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C49" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D49" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-    </row>
-    <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="5" t="s">
+      <c r="E49" s="5"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+    </row>
+    <row r="50" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A50" s="13"/>
+      <c r="B50" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C50" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D50" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-    </row>
-    <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="5" t="s">
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+    </row>
+    <row r="51" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A51" s="13"/>
+      <c r="B51" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D51" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E51" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-    </row>
-    <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="5" t="s">
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+    </row>
+    <row r="52" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A52" s="13"/>
+      <c r="B52" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C52" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D52" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E52" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-    </row>
-    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="5" t="s">
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+    </row>
+    <row r="53" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A53" s="13"/>
+      <c r="B53" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C53" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D53" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E53" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="5" t="s">
+    <row r="54" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A54" s="13"/>
+      <c r="B54" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C54" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D54" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="5" t="s">
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A55" s="13"/>
+      <c r="B55" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C55" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D55" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="5" t="s">
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A56" s="13"/>
+      <c r="B56" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C56" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D56" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E56" s="5" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A26:A36"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H32"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K32"/>
+  <mergeCells count="13">
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K52"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A5:A17"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A46:A56"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H52"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A21:A36"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="A5:A17"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B39:D39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
